--- a/Project2/dataset/parsed/train.xlsx
+++ b/Project2/dataset/parsed/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui Guedes\Faculdade\Inteligência Artificial\Trabalho\IART1819_T5\Project2\dataset\parsed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8266E37-3ABE-4FD4-8C7F-AE28A11D67C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8626B2-0533-4B76-9486-2D87F941D713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3876,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A988" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1002" sqref="A1002:C3528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15423,7 +15423,7 @@
         <v>10</v>
       </c>
       <c r="C962" t="str">
-        <f t="shared" ref="C962:C1001" si="15">IF(B962&gt;5,"Positive","Negative")</f>
+        <f t="shared" ref="C962:C1025" si="15">IF(B962&gt;5,"Positive","Negative")</f>
         <v>Positive</v>
       </c>
     </row>
